--- a/Effenaar.xlsx
+++ b/Effenaar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowan\Desktop\Tools\School\Semester 4\PersonalChallenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowan\Desktop\Tools\School\Semester 4\TortillasPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB35531-70ED-4FE7-A26B-F3CD3D984FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635DC532-9F4E-492B-A366-87CBB6A446F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="273">
   <si>
     <t>Kleine zaal</t>
   </si>
@@ -166,6 +166,684 @@
   </si>
   <si>
     <t>Sold out</t>
+  </si>
+  <si>
+    <t>We All Love 80's 90's 00's 10's NYE</t>
+  </si>
+  <si>
+    <t>LEGENDS of ROCK Tribute Festival</t>
+  </si>
+  <si>
+    <t>The Dutch Queen Tribute</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>Christmas Sing-a-Long</t>
+  </si>
+  <si>
+    <t>ABBA GOLD: The Christmas Special Show</t>
+  </si>
+  <si>
+    <t>The Opposites</t>
+  </si>
+  <si>
+    <t>Quiz'M - Top 2000 editie</t>
+  </si>
+  <si>
+    <t>Ploegendienst</t>
+  </si>
+  <si>
+    <t>Party in Nomansland: La Pegatina</t>
+  </si>
+  <si>
+    <t>HÔUSE WØRK</t>
+  </si>
+  <si>
+    <t>Karsu</t>
+  </si>
+  <si>
+    <t>Thijs Boontjes</t>
+  </si>
+  <si>
+    <t>Bridge Festival Presents: Cardinal Black</t>
+  </si>
+  <si>
+    <t>Jett Rebel</t>
+  </si>
+  <si>
+    <t>EINDHOVEN METAL MEETING WARM-UP EVENING 2023</t>
+  </si>
+  <si>
+    <t>Alestorm</t>
+  </si>
+  <si>
+    <t>Sue The Night</t>
+  </si>
+  <si>
+    <t>Call It Off + Bayline + Flora Skuller</t>
+  </si>
+  <si>
+    <t>Club Void: Ufomammut</t>
+  </si>
+  <si>
+    <t>Ilse DeLange</t>
+  </si>
+  <si>
+    <t>Turn Up The Remixes - All Night</t>
+  </si>
+  <si>
+    <t>Disco Inferno met Discophonic Orchestra</t>
+  </si>
+  <si>
+    <t>Purplex</t>
+  </si>
+  <si>
+    <t>Halocene</t>
+  </si>
+  <si>
+    <t>Kovacs</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>Matthew And The Atlas</t>
+  </si>
+  <si>
+    <t>Impericon Never Say Die! Tour 2023: Nasty + King 810</t>
+  </si>
+  <si>
+    <t>G. Love &amp; Special Sauc</t>
+  </si>
+  <si>
+    <t>Mad Caddies + Belvedere</t>
+  </si>
+  <si>
+    <t>Comedy Nacht: Nabil Aoulad Ayad + Bugra Gedik + Sjoerd Janssen + Petra de Graaf</t>
+  </si>
+  <si>
+    <t>The Bruceband</t>
+  </si>
+  <si>
+    <t>Sophie Straat</t>
+  </si>
+  <si>
+    <t>Carnation</t>
+  </si>
+  <si>
+    <t>An Orchestral Rendition of Dr. Dre: 2001 (verplaatst)</t>
+  </si>
+  <si>
+    <t>Zhivago &amp; Hollywood Revival</t>
+  </si>
+  <si>
+    <t>Steffen Morrison</t>
+  </si>
+  <si>
+    <t>Jack and the Weatherman</t>
+  </si>
+  <si>
+    <t>Portal: The Next Gen</t>
+  </si>
+  <si>
+    <t>Dedublüman</t>
+  </si>
+  <si>
+    <t>King Buffalo + Slomosa</t>
+  </si>
+  <si>
+    <t>Personal Trainer</t>
+  </si>
+  <si>
+    <t>RHIANNIN</t>
+  </si>
+  <si>
+    <t>Gökhan Türkmen</t>
+  </si>
+  <si>
+    <t>Toontje Lager</t>
+  </si>
+  <si>
+    <t>Verwonderd | Indoor Hard Techno Rave</t>
+  </si>
+  <si>
+    <t>XTRA: Outer Space</t>
+  </si>
+  <si>
+    <t>Hang Youth</t>
+  </si>
+  <si>
+    <t>Thunderground: The Battles</t>
+  </si>
+  <si>
+    <t>Metal Business Club</t>
+  </si>
+  <si>
+    <t>Rome Streetz + Armani Caesar</t>
+  </si>
+  <si>
+    <t>Back To The Disco: Gerard Ekdom</t>
+  </si>
+  <si>
+    <t>Comedy Nacht: Marlon Kicken + Esther van der Voort + Jean Opgenort</t>
+  </si>
+  <si>
+    <t>Emo Night Mainland</t>
+  </si>
+  <si>
+    <t>Kraak &amp; Smaak (LIVE XL)</t>
+  </si>
+  <si>
+    <t>Desi Bollywood</t>
+  </si>
+  <si>
+    <t>Def Americans</t>
+  </si>
+  <si>
+    <t>Hot Mulligan</t>
+  </si>
+  <si>
+    <t>Party in Nomansland: YĪN YĪN + Kumbia Boruka</t>
+  </si>
+  <si>
+    <t>Gavin James</t>
+  </si>
+  <si>
+    <t>SNAREN 90: Pablo Honey</t>
+  </si>
+  <si>
+    <t>40up</t>
+  </si>
+  <si>
+    <t>Acid King</t>
+  </si>
+  <si>
+    <t>Protomartyr</t>
+  </si>
+  <si>
+    <t>U.K. Subs</t>
+  </si>
+  <si>
+    <t>Zeke + Nine Pound Hammer</t>
+  </si>
+  <si>
+    <t>Spiritbox</t>
+  </si>
+  <si>
+    <t>SolarSister - Releaseshow</t>
+  </si>
+  <si>
+    <t>World Of Dance 2023</t>
+  </si>
+  <si>
+    <t>Club Void: Legion Of Doom</t>
+  </si>
+  <si>
+    <t>Rumours - A Fleetwood Mac Tribute</t>
+  </si>
+  <si>
+    <t>MASCHINE 17: Boston 168 + Sander Chan + Rausch</t>
+  </si>
+  <si>
+    <t>Pride Vibes</t>
+  </si>
+  <si>
+    <t>Club Void: Bongzilla</t>
+  </si>
+  <si>
+    <t>Comedy Nacht: Glodi Lugungu + Yunus Aktas + Jet Bootz</t>
+  </si>
+  <si>
+    <t>Woody Sings</t>
+  </si>
+  <si>
+    <t>SCHOOL'S OUT 2023</t>
+  </si>
+  <si>
+    <t>Club Void: The Obsessed</t>
+  </si>
+  <si>
+    <t>Fred Wesley &amp; The New J.B.'s</t>
+  </si>
+  <si>
+    <t>ALORA Invites AC13</t>
+  </si>
+  <si>
+    <t>Tramhaus</t>
+  </si>
+  <si>
+    <t>Benny The Butcher</t>
+  </si>
+  <si>
+    <t>Club Void: Valley Of The Sun</t>
+  </si>
+  <si>
+    <t>Club Void: The Devil And The Almighty Blues</t>
+  </si>
+  <si>
+    <t>Bob Marley Tribute: CatchAFire50 door Rootsriders</t>
+  </si>
+  <si>
+    <t>Ziggy Alberts</t>
+  </si>
+  <si>
+    <t>A Very Exclusive Afternoon Session with Steve Vai</t>
+  </si>
+  <si>
+    <t>Club Void: Nebula</t>
+  </si>
+  <si>
+    <t>Eisbrecher</t>
+  </si>
+  <si>
+    <t>Club Void: Sum Of R</t>
+  </si>
+  <si>
+    <t>BRIDGE presents: LUNCHPAUZECONCERT</t>
+  </si>
+  <si>
+    <t>BRIDGE Festival Heroes Night</t>
+  </si>
+  <si>
+    <t>Scott Bradlee's Postmodern Jukebox</t>
+  </si>
+  <si>
+    <t>W.A.S.P. (nieuwe datum)</t>
+  </si>
+  <si>
+    <t>Woody Sings Townes</t>
+  </si>
+  <si>
+    <t>The Elvis Concert</t>
+  </si>
+  <si>
+    <t>Shadowlands Rave - Realm Of The Resistance</t>
+  </si>
+  <si>
+    <t>Vrienden voor Altijd in Concert! Django Wagner &amp; Ferry de Lits</t>
+  </si>
+  <si>
+    <t>Purplex | Hard Techno</t>
+  </si>
+  <si>
+    <t>Vive la Fête</t>
+  </si>
+  <si>
+    <t>Jungle By Night + This Is LOVSKI</t>
+  </si>
+  <si>
+    <t>Jeangu Macrooy</t>
+  </si>
+  <si>
+    <t>Comedy Nacht: Stefan Hendrikx, Fuad Hassen &amp; Marjolein van Vliet</t>
+  </si>
+  <si>
+    <t>Sem Jansen</t>
+  </si>
+  <si>
+    <t>Foute Feestje presents Qmusic The Party FOUT!</t>
+  </si>
+  <si>
+    <t>Prins S. en De Geit</t>
+  </si>
+  <si>
+    <t>Marble Sounds</t>
+  </si>
+  <si>
+    <t>Tabitha</t>
+  </si>
+  <si>
+    <t>Snaren 90: In Utero</t>
+  </si>
+  <si>
+    <t>PYRO</t>
+  </si>
+  <si>
+    <t>Pinhani (nieuwe datum)</t>
+  </si>
+  <si>
+    <t>MASCHINE 16</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>RONDÉ + Alex Vargas</t>
+  </si>
+  <si>
+    <t>The Vices</t>
+  </si>
+  <si>
+    <t>Club Void: Nick Oliveri</t>
+  </si>
+  <si>
+    <t>Woody Sings Murder Ballads</t>
+  </si>
+  <si>
+    <t>HouseClassics '1992 - 1995'</t>
+  </si>
+  <si>
+    <t>Rewind - 9 year anniversary</t>
+  </si>
+  <si>
+    <t>The Handsome Family</t>
+  </si>
+  <si>
+    <t>Club Void: Nightstalker</t>
+  </si>
+  <si>
+    <t>Club Void: Wiegedood</t>
+  </si>
+  <si>
+    <t>XTRA</t>
+  </si>
+  <si>
+    <t>FLOWS: Hef &amp; Crooks, ADF Samski, Dikke, sor en meer.</t>
+  </si>
+  <si>
+    <t>Club Void: Dunddw</t>
+  </si>
+  <si>
+    <t>Warhaus</t>
+  </si>
+  <si>
+    <t>Carte Blanche - The Reunion</t>
+  </si>
+  <si>
+    <t>Club Void: Hot Garbage</t>
+  </si>
+  <si>
+    <t>The Hillbilly Moonshiners</t>
+  </si>
+  <si>
+    <t>Welcome To Hell Festival</t>
+  </si>
+  <si>
+    <t>FESTEN</t>
+  </si>
+  <si>
+    <t>Edwin Evers Band</t>
+  </si>
+  <si>
+    <t>Woody Sings Ireland</t>
+  </si>
+  <si>
+    <t>Club Void: Radar Men From The Moon</t>
+  </si>
+  <si>
+    <t>Eindhoven de Gladste: o.a. Gladde Paling &amp; Vieze Asbak</t>
+  </si>
+  <si>
+    <t>Crows + Those Who Didn't</t>
+  </si>
+  <si>
+    <t>Ben Caplan</t>
+  </si>
+  <si>
+    <t>Movie Night: Dick Dynamite 1944</t>
+  </si>
+  <si>
+    <t>Dirty Honey</t>
+  </si>
+  <si>
+    <t>Panletive - OGUZ All Night</t>
+  </si>
+  <si>
+    <t>The Blackwax Stereosound - DeWolff afterparty</t>
+  </si>
+  <si>
+    <t>DeWolff</t>
+  </si>
+  <si>
+    <t>Club Void: An Evening With Knives</t>
+  </si>
+  <si>
+    <t>Togo All Stars</t>
+  </si>
+  <si>
+    <t>Duke Garwood</t>
+  </si>
+  <si>
+    <t>Twilight Force - Winter Wonder Tour</t>
+  </si>
+  <si>
+    <t>Club X - On Tour</t>
+  </si>
+  <si>
+    <t>Stevie Wonder Tribute</t>
+  </si>
+  <si>
+    <t>Rick de Leeuw &amp; band</t>
+  </si>
+  <si>
+    <t>The Amity Affliction</t>
+  </si>
+  <si>
+    <t>Comedy Nacht: o.a. Ruud Smulders en Emiel van der Logt</t>
+  </si>
+  <si>
+    <t>The Sound Undercover</t>
+  </si>
+  <si>
+    <t>Still Collins</t>
+  </si>
+  <si>
+    <t>Woody Sings Dylan</t>
+  </si>
+  <si>
+    <t>Whiff &amp; The Wet Socks</t>
+  </si>
+  <si>
+    <t>Rotterdam Terror Corps - 30 years</t>
+  </si>
+  <si>
+    <t>Occult</t>
+  </si>
+  <si>
+    <t>We All Love 80's 90's 00's NYE</t>
+  </si>
+  <si>
+    <t>Legends of Rock tribute festival</t>
+  </si>
+  <si>
+    <t>Party in Nomansland</t>
+  </si>
+  <si>
+    <t>Goldband</t>
+  </si>
+  <si>
+    <t>ABBA GOLD</t>
+  </si>
+  <si>
+    <t>Quiz'm - Top 2000 editie</t>
+  </si>
+  <si>
+    <t>Bömbers</t>
+  </si>
+  <si>
+    <t>Heino</t>
+  </si>
+  <si>
+    <t>Christmas Sing-a-long</t>
+  </si>
+  <si>
+    <t>MY BABY</t>
+  </si>
+  <si>
+    <t>De Danshal</t>
+  </si>
+  <si>
+    <t>Club Void</t>
+  </si>
+  <si>
+    <t>BLØF</t>
+  </si>
+  <si>
+    <t>EINDHOVEN METAL MEETING 2022 WARM-UP PARTY</t>
+  </si>
+  <si>
+    <t>Woody Sings Love Songs</t>
+  </si>
+  <si>
+    <t>KRS-One + Afu Ra + McGyver + The Beat Oven</t>
+  </si>
+  <si>
+    <t>Fresku - In de Lucht</t>
+  </si>
+  <si>
+    <t>Orange Skyline - Meet You In The Middle Tour</t>
+  </si>
+  <si>
+    <t>Fleur</t>
+  </si>
+  <si>
+    <t>Gare du Nord</t>
+  </si>
+  <si>
+    <t>Son Mieux</t>
+  </si>
+  <si>
+    <t>Wende</t>
+  </si>
+  <si>
+    <t>BENR + Mits Mitchell</t>
+  </si>
+  <si>
+    <t>Miss Montreal</t>
+  </si>
+  <si>
+    <t>Come As You Are 2022</t>
+  </si>
+  <si>
+    <t>TROMP Percussion Presents: A New Dawn</t>
+  </si>
+  <si>
+    <t>Stahlzeit</t>
+  </si>
+  <si>
+    <t>Robert Finley</t>
+  </si>
+  <si>
+    <t>Comedy Nacht: Martijn Kardol, Tobi Kooiman, Soula Notos en MC Hank</t>
+  </si>
+  <si>
+    <t>We All Love 80's 90's 00's</t>
+  </si>
+  <si>
+    <t>Michelle David &amp; The True-Tones</t>
+  </si>
+  <si>
+    <t>Randy Hansen - 50 year Jimi Hendrix</t>
+  </si>
+  <si>
+    <t>August Burns Red</t>
+  </si>
+  <si>
+    <t>Woody Sings Protest Songs</t>
+  </si>
+  <si>
+    <t>Thunderground</t>
+  </si>
+  <si>
+    <t>De Dijk</t>
+  </si>
+  <si>
+    <t>MASCHINE 15</t>
+  </si>
+  <si>
+    <t>Seun Kuti &amp; Egypt80</t>
+  </si>
+  <si>
+    <t>So What's Next Jazzfestival</t>
+  </si>
+  <si>
+    <t>XTRA - HalloQueen Edition</t>
+  </si>
+  <si>
+    <t>Heideroosjes</t>
+  </si>
+  <si>
+    <t>Sloper</t>
+  </si>
+  <si>
+    <t>Cryogenic</t>
+  </si>
+  <si>
+    <t>QMusic The Party Fout!</t>
+  </si>
+  <si>
+    <t>Kraak &amp; Smaak Live</t>
+  </si>
+  <si>
+    <t>Iconic Albums - Golden Earring</t>
+  </si>
+  <si>
+    <t>Van Dik Hout</t>
+  </si>
+  <si>
+    <t>Back To The Disco met Gerard Ekdom</t>
+  </si>
+  <si>
+    <t>Levellers</t>
+  </si>
+  <si>
+    <t>Ariel Posen</t>
+  </si>
+  <si>
+    <t>Brian Dunne</t>
+  </si>
+  <si>
+    <t>Cradle of Filth</t>
+  </si>
+  <si>
+    <t>Neil Young's 'Harvest' 50</t>
+  </si>
+  <si>
+    <t>Froukje</t>
+  </si>
+  <si>
+    <t>Dance To My beat</t>
+  </si>
+  <si>
+    <t>WIES</t>
+  </si>
+  <si>
+    <t>...And You Will Know Us By The Trail Of Dead</t>
+  </si>
+  <si>
+    <t>Guus Meeuwis</t>
+  </si>
+  <si>
+    <t>Samael - 25th Anniversary of 'Passage'</t>
+  </si>
+  <si>
+    <t>Legends of Rock-'n-Roll</t>
+  </si>
+  <si>
+    <t>PIÑA XL</t>
+  </si>
+  <si>
+    <t>Dubioza Kolektiv</t>
+  </si>
+  <si>
+    <t>Milow</t>
+  </si>
+  <si>
+    <t>Def Americans - 15 jaar</t>
+  </si>
+  <si>
+    <t>Henny Vrienten Tribute</t>
+  </si>
+  <si>
+    <t>Comedy Nacht</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>Verwonderd Indoor Festival</t>
   </si>
 </sst>
 </file>
@@ -201,10 +879,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -485,15 +1164,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A1048562" workbookViewId="0">
+      <selection activeCell="A1048570" sqref="A1048570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.21875" customWidth="1"/>
     <col min="3" max="3" width="5.88671875" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
@@ -1214,6 +1893,4769 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45291</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45655</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45288</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45283</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45282</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45281</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45280</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45276</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45276</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45275</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45275</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45274</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45272</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45270</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45267</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45263</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45263</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45261</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45261</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45259</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45254</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D67" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45254</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45254</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45253</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45249</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45248</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45247</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45247</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45245</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45243</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45242</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D77" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45242</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45241</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D79" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45239</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D80" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45235</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45234</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45233</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45232</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D84" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45228</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D85" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45227</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45227</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45226</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45225</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45225</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D90" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45217</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D91" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45214</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45214</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45213</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45213</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D95" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45212</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D96" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45212</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45205</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D98" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45205</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45204</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D100" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45203</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D101" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>57</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D102" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45196</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D104" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45192</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>101</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45191</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D106" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>102</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45186</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>103</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45184</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D108" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>104</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45184</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>105</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45179</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D110" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45178</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45177</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45176</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45171</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>108</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45171</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D115" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>109</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45170</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>110</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45162</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D117" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45152</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45115</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45108</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D120" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>112</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45108</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>113</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45107</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>114</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45104</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>115</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45102</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D124" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>116</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45094</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45093</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D126" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45092</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D127" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>118</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45088</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>119</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45087</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D129" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>120</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45087</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>121</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45085</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D131" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>122</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45084</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D132" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45081</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D133" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45081</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45080</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D135" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>125</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45078</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D136" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>126</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45074</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45073</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D138" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45073</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>127</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45072</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>128</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45072</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D141" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>129</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>130</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45071</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D143" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>131</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45070</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D144" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>132</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45067</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>27</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45066</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45066</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D147" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45065</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D148" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>133</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45065</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>134</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45060</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>135</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45060</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D151" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>103</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45059</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>136</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45058</v>
+      </c>
+      <c r="C153" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>137</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45057</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D154" t="s">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>138</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C155" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D155" t="s">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>139</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C156" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D156" t="s">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>140</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45056</v>
+      </c>
+      <c r="C157" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>141</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45055</v>
+      </c>
+      <c r="C158" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>142</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45053</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D159" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>143</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45053</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>144</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C161" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>145</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C162" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>146</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C163" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>147</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C164" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D164" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>148</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>149</v>
+      </c>
+      <c r="B166" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C166" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D166" t="s">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>150</v>
+      </c>
+      <c r="B167" s="1">
+        <v>45039</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D167" t="s">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>151</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45039</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>152</v>
+      </c>
+      <c r="B169" s="1">
+        <v>45038</v>
+      </c>
+      <c r="C169" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D169" t="s">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>153</v>
+      </c>
+      <c r="B170" s="1">
+        <v>45038</v>
+      </c>
+      <c r="C170" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D170" t="s">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>154</v>
+      </c>
+      <c r="B171" s="1">
+        <v>45036</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D171" t="s">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>155</v>
+      </c>
+      <c r="B172" s="1">
+        <v>45036</v>
+      </c>
+      <c r="C172" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>156</v>
+      </c>
+      <c r="B173" s="1">
+        <v>45030</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D173" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>157</v>
+      </c>
+      <c r="B174" s="1">
+        <v>45029</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D174" t="s">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="1">
+        <v>45028</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>158</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45025</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>159</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C177" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D177" t="s">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>160</v>
+      </c>
+      <c r="B178" s="1">
+        <v>45023</v>
+      </c>
+      <c r="C178" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>161</v>
+      </c>
+      <c r="B179" s="1">
+        <v>45022</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>162</v>
+      </c>
+      <c r="B180" s="1">
+        <v>45022</v>
+      </c>
+      <c r="C180" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D180" t="s">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>163</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45021</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D181" t="s">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>164</v>
+      </c>
+      <c r="B182" s="1">
+        <v>45018</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D182" t="s">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>165</v>
+      </c>
+      <c r="B183" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D183" t="s">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>166</v>
+      </c>
+      <c r="B184" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C184" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>167</v>
+      </c>
+      <c r="B185" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C185" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D185" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>168</v>
+      </c>
+      <c r="B186" s="1">
+        <v>45015</v>
+      </c>
+      <c r="C186" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D186" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>169</v>
+      </c>
+      <c r="B187" s="1">
+        <v>45014</v>
+      </c>
+      <c r="C187" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D187" t="s">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>170</v>
+      </c>
+      <c r="B188" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C188" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D188" t="s">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>31</v>
+      </c>
+      <c r="B189" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C189" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D189" t="s">
+        <v>2</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>171</v>
+      </c>
+      <c r="B190" s="1">
+        <v>45009</v>
+      </c>
+      <c r="C190" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D190" t="s">
+        <v>2</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>172</v>
+      </c>
+      <c r="B191" s="1">
+        <v>45008</v>
+      </c>
+      <c r="C191" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D191" t="s">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>173</v>
+      </c>
+      <c r="B192" s="1">
+        <v>45008</v>
+      </c>
+      <c r="C192" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>109</v>
+      </c>
+      <c r="B193" s="1">
+        <v>45003</v>
+      </c>
+      <c r="C193" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D193" t="s">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>33</v>
+      </c>
+      <c r="B194" s="1">
+        <v>45003</v>
+      </c>
+      <c r="C194" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D194" t="s">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C195" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D195" t="s">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>174</v>
+      </c>
+      <c r="B196" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C196" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D196" t="s">
+        <v>2</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>175</v>
+      </c>
+      <c r="B197" s="1">
+        <v>45001</v>
+      </c>
+      <c r="C197" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D197" t="s">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>176</v>
+      </c>
+      <c r="B198" s="1">
+        <v>44997</v>
+      </c>
+      <c r="C198" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D198" t="s">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>177</v>
+      </c>
+      <c r="B199" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C199" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>178</v>
+      </c>
+      <c r="B200" s="1">
+        <v>44995</v>
+      </c>
+      <c r="C200" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D200" t="s">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>179</v>
+      </c>
+      <c r="B201" s="1">
+        <v>44994</v>
+      </c>
+      <c r="C201" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D201" t="s">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>180</v>
+      </c>
+      <c r="B202" s="1">
+        <v>44990</v>
+      </c>
+      <c r="C202" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D202" t="s">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>57</v>
+      </c>
+      <c r="B203" s="1">
+        <v>44988</v>
+      </c>
+      <c r="C203" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D203" t="s">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>181</v>
+      </c>
+      <c r="B204" s="1">
+        <v>44987</v>
+      </c>
+      <c r="C204" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D204" t="s">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>182</v>
+      </c>
+      <c r="B205" s="1">
+        <v>44982</v>
+      </c>
+      <c r="C205" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D205" t="s">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>15</v>
+      </c>
+      <c r="B206" s="1">
+        <v>44981</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D206" t="s">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>183</v>
+      </c>
+      <c r="B207" s="1">
+        <v>44969</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D207" t="s">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>39</v>
+      </c>
+      <c r="B208" s="1">
+        <v>44968</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D208" t="s">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>41</v>
+      </c>
+      <c r="B209" s="1">
+        <v>44968</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D209" t="s">
+        <v>2</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>184</v>
+      </c>
+      <c r="B210" s="1">
+        <v>44967</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D210" t="s">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>41</v>
+      </c>
+      <c r="B211" s="1">
+        <v>44967</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D211" t="s">
+        <v>2</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>185</v>
+      </c>
+      <c r="B212" s="1">
+        <v>44966</v>
+      </c>
+      <c r="C212" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D212" t="s">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>186</v>
+      </c>
+      <c r="B213" s="1">
+        <v>44963</v>
+      </c>
+      <c r="C213" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D213" t="s">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>187</v>
+      </c>
+      <c r="B214" s="1">
+        <v>44961</v>
+      </c>
+      <c r="C214" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D214" t="s">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>188</v>
+      </c>
+      <c r="B215" s="1">
+        <v>44960</v>
+      </c>
+      <c r="C215" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D215" t="s">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>189</v>
+      </c>
+      <c r="B216" s="1">
+        <v>44960</v>
+      </c>
+      <c r="C216" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D216" t="s">
+        <v>2</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>190</v>
+      </c>
+      <c r="B217" s="1">
+        <v>44959</v>
+      </c>
+      <c r="C217" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D217" t="s">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>191</v>
+      </c>
+      <c r="B218" s="1">
+        <v>44955</v>
+      </c>
+      <c r="C218" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D218" t="s">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>31</v>
+      </c>
+      <c r="B219" s="1">
+        <v>44953</v>
+      </c>
+      <c r="C219" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>192</v>
+      </c>
+      <c r="B220" s="1">
+        <v>44953</v>
+      </c>
+      <c r="C220" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D220" t="s">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>193</v>
+      </c>
+      <c r="B221" s="1">
+        <v>44948</v>
+      </c>
+      <c r="C221" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D221" t="s">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>194</v>
+      </c>
+      <c r="B222" s="1">
+        <v>44947</v>
+      </c>
+      <c r="C222" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D222" t="s">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>195</v>
+      </c>
+      <c r="B223" s="1">
+        <v>44946</v>
+      </c>
+      <c r="C223" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D223" t="s">
+        <v>2</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>196</v>
+      </c>
+      <c r="B224" s="1">
+        <v>44946</v>
+      </c>
+      <c r="C224" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D224" t="s">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>197</v>
+      </c>
+      <c r="B225" s="1">
+        <v>44945</v>
+      </c>
+      <c r="C225" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="D225" t="s">
+        <v>2</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>198</v>
+      </c>
+      <c r="B226" s="1">
+        <v>44944</v>
+      </c>
+      <c r="C226" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D226" t="s">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227" s="1">
+        <v>44940</v>
+      </c>
+      <c r="C227" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D227" t="s">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>199</v>
+      </c>
+      <c r="B228" s="1">
+        <v>44940</v>
+      </c>
+      <c r="C228" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D228" t="s">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>200</v>
+      </c>
+      <c r="B229" s="1">
+        <v>44940</v>
+      </c>
+      <c r="C229" s="2">
+        <v>0.8354166666666667</v>
+      </c>
+      <c r="D229" t="s">
+        <v>2</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>201</v>
+      </c>
+      <c r="B230" s="1">
+        <v>44934</v>
+      </c>
+      <c r="C230" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D230" t="s">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>202</v>
+      </c>
+      <c r="B231" s="1">
+        <v>44933</v>
+      </c>
+      <c r="C231" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D231" t="s">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>203</v>
+      </c>
+      <c r="B232" s="1">
+        <v>44933</v>
+      </c>
+      <c r="C232" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D232" t="s">
+        <v>2</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>204</v>
+      </c>
+      <c r="B233" s="1">
+        <v>44932</v>
+      </c>
+      <c r="C233" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D233" t="s">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>205</v>
+      </c>
+      <c r="B234" s="1">
+        <v>44926</v>
+      </c>
+      <c r="C234" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D234" t="s">
+        <v>2</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>206</v>
+      </c>
+      <c r="B235" s="1">
+        <v>44925</v>
+      </c>
+      <c r="C235" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D235" t="s">
+        <v>2</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>207</v>
+      </c>
+      <c r="B236" s="3">
+        <v>44918</v>
+      </c>
+      <c r="C236" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D236" t="s">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>208</v>
+      </c>
+      <c r="B237" s="3">
+        <v>44918</v>
+      </c>
+      <c r="C237" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D237" t="s">
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>209</v>
+      </c>
+      <c r="B238" s="1">
+        <v>44917</v>
+      </c>
+      <c r="C238" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D238" t="s">
+        <v>2</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>210</v>
+      </c>
+      <c r="B239" s="1">
+        <v>44916</v>
+      </c>
+      <c r="C239" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D239" t="s">
+        <v>2</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>211</v>
+      </c>
+      <c r="B240" s="1">
+        <v>45278</v>
+      </c>
+      <c r="C240" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D240" t="s">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>212</v>
+      </c>
+      <c r="B241" s="1">
+        <v>45278</v>
+      </c>
+      <c r="C241" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D241" t="s">
+        <v>2</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>213</v>
+      </c>
+      <c r="B242" s="1">
+        <v>44912</v>
+      </c>
+      <c r="C242" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D242" t="s">
+        <v>2</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>214</v>
+      </c>
+      <c r="B243" s="1">
+        <v>44911</v>
+      </c>
+      <c r="C243" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D243" t="s">
+        <v>2</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>215</v>
+      </c>
+      <c r="B244" s="1">
+        <v>44911</v>
+      </c>
+      <c r="C244" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D244" t="s">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>216</v>
+      </c>
+      <c r="B245" s="1">
+        <v>44910</v>
+      </c>
+      <c r="C245" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D245" t="s">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>61</v>
+      </c>
+      <c r="B246" s="1">
+        <v>44909</v>
+      </c>
+      <c r="C246" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D246" t="s">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>217</v>
+      </c>
+      <c r="B247" s="1">
+        <v>44906</v>
+      </c>
+      <c r="C247" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D247" t="s">
+        <v>2</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>218</v>
+      </c>
+      <c r="B248" s="1">
+        <v>44903</v>
+      </c>
+      <c r="C248" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D248" t="s">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>216</v>
+      </c>
+      <c r="B249" s="1">
+        <v>44902</v>
+      </c>
+      <c r="C249" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D249" t="s">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>219</v>
+      </c>
+      <c r="B250" s="1">
+        <v>44899</v>
+      </c>
+      <c r="C250" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D250" t="s">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>220</v>
+      </c>
+      <c r="B251" s="1">
+        <v>44899</v>
+      </c>
+      <c r="C251" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D251" t="s">
+        <v>2</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>109</v>
+      </c>
+      <c r="B252" s="1">
+        <v>44898</v>
+      </c>
+      <c r="C252" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D252" t="s">
+        <v>2</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>221</v>
+      </c>
+      <c r="B253" s="1">
+        <v>44897</v>
+      </c>
+      <c r="C253" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D253" t="s">
+        <v>2</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>222</v>
+      </c>
+      <c r="B254" s="1">
+        <v>44896</v>
+      </c>
+      <c r="C254" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D254" t="s">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>216</v>
+      </c>
+      <c r="B255" s="1">
+        <v>44895</v>
+      </c>
+      <c r="C255" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D255" t="s">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>223</v>
+      </c>
+      <c r="B256" s="1">
+        <v>44892</v>
+      </c>
+      <c r="C256" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D256" t="s">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>224</v>
+      </c>
+      <c r="B257" s="1">
+        <v>44892</v>
+      </c>
+      <c r="C257" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D257" t="s">
+        <v>2</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>225</v>
+      </c>
+      <c r="B258" s="1">
+        <v>44889</v>
+      </c>
+      <c r="C258" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D258" t="s">
+        <v>2</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>226</v>
+      </c>
+      <c r="B259" s="1">
+        <v>44888</v>
+      </c>
+      <c r="C259" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D259" t="s">
+        <v>2</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>216</v>
+      </c>
+      <c r="B260" s="1">
+        <v>44886</v>
+      </c>
+      <c r="C260" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D260" t="s">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>227</v>
+      </c>
+      <c r="B261" s="1">
+        <v>44885</v>
+      </c>
+      <c r="C261" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D261" t="s">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>228</v>
+      </c>
+      <c r="B262" s="1">
+        <v>44885</v>
+      </c>
+      <c r="C262" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D262" t="s">
+        <v>2</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>229</v>
+      </c>
+      <c r="B263" s="1">
+        <v>44884</v>
+      </c>
+      <c r="C263" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D263" t="s">
+        <v>2</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>230</v>
+      </c>
+      <c r="B264" s="1">
+        <v>44883</v>
+      </c>
+      <c r="C264" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D264" t="s">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>231</v>
+      </c>
+      <c r="B265" s="1">
+        <v>44882</v>
+      </c>
+      <c r="C265" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D265" t="s">
+        <v>2</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>162</v>
+      </c>
+      <c r="B266" s="1">
+        <v>44882</v>
+      </c>
+      <c r="C266" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D266" t="s">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>216</v>
+      </c>
+      <c r="B267" s="1">
+        <v>44881</v>
+      </c>
+      <c r="C267" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D267" t="s">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>232</v>
+      </c>
+      <c r="B268" s="1">
+        <v>44880</v>
+      </c>
+      <c r="C268" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D268" t="s">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>233</v>
+      </c>
+      <c r="B269" s="1">
+        <v>44878</v>
+      </c>
+      <c r="C269" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D269" t="s">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>234</v>
+      </c>
+      <c r="B270" s="1">
+        <v>44877</v>
+      </c>
+      <c r="C270" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D270" t="s">
+        <v>2</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>235</v>
+      </c>
+      <c r="B271" s="1">
+        <v>44877</v>
+      </c>
+      <c r="C271" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D271" t="s">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>236</v>
+      </c>
+      <c r="B272" s="1">
+        <v>44876</v>
+      </c>
+      <c r="C272" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D272" t="s">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>237</v>
+      </c>
+      <c r="B273" s="1">
+        <v>44871</v>
+      </c>
+      <c r="C273" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D273" t="s">
+        <v>2</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>238</v>
+      </c>
+      <c r="B274" s="1">
+        <v>44871</v>
+      </c>
+      <c r="C274" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D274" t="s">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>239</v>
+      </c>
+      <c r="B275" s="1">
+        <v>44870</v>
+      </c>
+      <c r="C275" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D275" t="s">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>240</v>
+      </c>
+      <c r="B276" s="1">
+        <v>44869</v>
+      </c>
+      <c r="C276" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D276" t="s">
+        <v>2</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>241</v>
+      </c>
+      <c r="B277" s="1">
+        <v>44869</v>
+      </c>
+      <c r="C277" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D277" t="s">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>240</v>
+      </c>
+      <c r="B278" s="1">
+        <v>44868</v>
+      </c>
+      <c r="C278" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D278" t="s">
+        <v>2</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>216</v>
+      </c>
+      <c r="B279" s="1">
+        <v>44868</v>
+      </c>
+      <c r="C279" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D279" t="s">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>240</v>
+      </c>
+      <c r="B280" s="1">
+        <v>44867</v>
+      </c>
+      <c r="C280" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D280" t="s">
+        <v>2</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>242</v>
+      </c>
+      <c r="B281" s="1">
+        <v>44866</v>
+      </c>
+      <c r="C281" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D281" t="s">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>243</v>
+      </c>
+      <c r="B282" s="1">
+        <v>44864</v>
+      </c>
+      <c r="C282" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D282" t="s">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>244</v>
+      </c>
+      <c r="B283" s="1">
+        <v>44863</v>
+      </c>
+      <c r="C283" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D283" t="s">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>69</v>
+      </c>
+      <c r="B284" s="1">
+        <v>44863</v>
+      </c>
+      <c r="C284" s="2">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D284" t="s">
+        <v>2</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>9</v>
+      </c>
+      <c r="B285" s="1">
+        <v>44862</v>
+      </c>
+      <c r="C285" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D285" t="s">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>245</v>
+      </c>
+      <c r="B286" s="1">
+        <v>44856</v>
+      </c>
+      <c r="C286" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D286" t="s">
+        <v>2</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>216</v>
+      </c>
+      <c r="B287" s="1">
+        <v>44854</v>
+      </c>
+      <c r="C287" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D287" t="s">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>246</v>
+      </c>
+      <c r="B288" s="1">
+        <v>44850</v>
+      </c>
+      <c r="C288" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D288" t="s">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>247</v>
+      </c>
+      <c r="B289" s="1">
+        <v>44849</v>
+      </c>
+      <c r="C289" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="D289" t="s">
+        <v>2</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>207</v>
+      </c>
+      <c r="B290" s="1">
+        <v>44849</v>
+      </c>
+      <c r="C290" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D290" t="s">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>248</v>
+      </c>
+      <c r="B291" s="1">
+        <v>44848</v>
+      </c>
+      <c r="C291" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D291" t="s">
+        <v>2</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>249</v>
+      </c>
+      <c r="B292" s="1">
+        <v>44848</v>
+      </c>
+      <c r="C292" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D292" t="s">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>250</v>
+      </c>
+      <c r="B293" s="1">
+        <v>44847</v>
+      </c>
+      <c r="C293" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D293" t="s">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>251</v>
+      </c>
+      <c r="B294" s="1">
+        <v>44843</v>
+      </c>
+      <c r="C294" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D294" t="s">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>15</v>
+      </c>
+      <c r="B295" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C295" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D295" t="s">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>252</v>
+      </c>
+      <c r="B296" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C296" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D296" t="s">
+        <v>2</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>253</v>
+      </c>
+      <c r="B297" s="1">
+        <v>44840</v>
+      </c>
+      <c r="C297" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D297" t="s">
+        <v>2</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>254</v>
+      </c>
+      <c r="B298" s="1">
+        <v>44840</v>
+      </c>
+      <c r="C298" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D298" t="s">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>255</v>
+      </c>
+      <c r="B299" s="1">
+        <v>44839</v>
+      </c>
+      <c r="C299" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D299" t="s">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>256</v>
+      </c>
+      <c r="B300" s="1">
+        <v>44839</v>
+      </c>
+      <c r="C300" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D300" t="s">
+        <v>2</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>257</v>
+      </c>
+      <c r="B301" s="1">
+        <v>44836</v>
+      </c>
+      <c r="C301" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D301" t="s">
+        <v>2</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>123</v>
+      </c>
+      <c r="B302" s="1">
+        <v>44836</v>
+      </c>
+      <c r="C302" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D302" t="s">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>258</v>
+      </c>
+      <c r="B303" s="1">
+        <v>44835</v>
+      </c>
+      <c r="C303" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D303" t="s">
+        <v>2</v>
+      </c>
+      <c r="E303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>259</v>
+      </c>
+      <c r="B304" s="1">
+        <v>44835</v>
+      </c>
+      <c r="C304" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D304" t="s">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>260</v>
+      </c>
+      <c r="B305" s="1">
+        <v>44834</v>
+      </c>
+      <c r="C305" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D305" t="s">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>261</v>
+      </c>
+      <c r="B306" s="1">
+        <v>44833</v>
+      </c>
+      <c r="C306" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D306" t="s">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>262</v>
+      </c>
+      <c r="B307" s="1">
+        <v>44833</v>
+      </c>
+      <c r="C307" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D307" t="s">
+        <v>2</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>216</v>
+      </c>
+      <c r="B308" s="1">
+        <v>44832</v>
+      </c>
+      <c r="C308" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D308" t="s">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>263</v>
+      </c>
+      <c r="B309" s="1">
+        <v>44829</v>
+      </c>
+      <c r="C309" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="D309" t="s">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>264</v>
+      </c>
+      <c r="B310" s="1">
+        <v>44829</v>
+      </c>
+      <c r="C310" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D310" t="s">
+        <v>2</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>234</v>
+      </c>
+      <c r="B311" s="1">
+        <v>44828</v>
+      </c>
+      <c r="C311" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D311" t="s">
+        <v>2</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>265</v>
+      </c>
+      <c r="B312" s="1">
+        <v>44827</v>
+      </c>
+      <c r="C312" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D312" t="s">
+        <v>2</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>266</v>
+      </c>
+      <c r="B313" s="1">
+        <v>44826</v>
+      </c>
+      <c r="C313" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D313" t="s">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>267</v>
+      </c>
+      <c r="B314" s="1">
+        <v>44826</v>
+      </c>
+      <c r="C314" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D314" t="s">
+        <v>2</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>207</v>
+      </c>
+      <c r="B315" s="1">
+        <v>44820</v>
+      </c>
+      <c r="C315" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D315" t="s">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>268</v>
+      </c>
+      <c r="B316" s="1">
+        <v>44820</v>
+      </c>
+      <c r="C316" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D316" t="s">
+        <v>2</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>269</v>
+      </c>
+      <c r="B317" s="1">
+        <v>44819</v>
+      </c>
+      <c r="C317" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D317" t="s">
+        <v>2</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>270</v>
+      </c>
+      <c r="B318" s="1">
+        <v>44815</v>
+      </c>
+      <c r="C318" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D318" t="s">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>271</v>
+      </c>
+      <c r="B319" s="1">
+        <v>44811</v>
+      </c>
+      <c r="C319" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="D319" t="s">
+        <v>2</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>272</v>
+      </c>
+      <c r="B320" s="1">
+        <v>44806</v>
+      </c>
+      <c r="C320" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D320" t="s">
+        <v>2</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>215</v>
+      </c>
+      <c r="B321" s="1">
+        <v>44806</v>
+      </c>
+      <c r="C321" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D321" t="s">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>216</v>
+      </c>
+      <c r="B322" s="1">
+        <v>44805</v>
+      </c>
+      <c r="C322" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D322" t="s">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048576" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1048576" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
